--- a/biology/Zoologie/Akialoa_d'Hawaï/Akialoa_d'Hawaï.xlsx
+++ b/biology/Zoologie/Akialoa_d'Hawaï/Akialoa_d'Hawaï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akialoa_d%27Hawa%C3%AF</t>
+          <t>Akialoa_d'Hawaï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Akialoa d'Hawaï (Akialoa obscura), aussi appelé Hémignathe akialoa, est une espèce éteinte d'oiseau de la famille des Fringillidae. L'espèce était endémique de l'île d' Hawaï. Elle a disparu au XXe siècle, victime de la perte de son habitat.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akialoa_d%27Hawa%C3%AF</t>
+          <t>Akialoa_d'Hawaï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Akialoa obscura (J.F.Gmelin, 1788)[1].
-L'espèce a été initialement classée dans le genre Certhia sous le protonyme Certhia obscura J.F.Gmelin, 1788[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Hémignathe akialoa[1].
-Akialoa obscura a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Akialoa obscura (J.F.Gmelin, 1788).
+L'espèce a été initialement classée dans le genre Certhia sous le protonyme Certhia obscura J.F.Gmelin, 1788.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Hémignathe akialoa.
+Akialoa obscura a pour synonymes :
 Akialoa obscura subsp. obscura
 Certhia obscura J.F.Gmelin, 1788
 Hemignathus obscurus (J.F.Gmelin, 1788)
